--- a/test/Source/const.xlsx
+++ b/test/Source/const.xlsx
@@ -5,13 +5,33 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Const_A" sheetId="1" r:id="rId4"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
+    <sheet name="Const_A" sheetId="2" r:id="rId5"/>
+    <sheet name="Const_B" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+  <si>
+    <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
+  </si>
+  <si>
+    <t>Numbers 表格工作表名称</t>
+  </si>
+  <si>
+    <t>数字表格名称</t>
+  </si>
+  <si>
+    <t>Excel 工作表名称</t>
+  </si>
+  <si>
+    <t>Const_A</t>
+  </si>
+  <si>
+    <t>表格 1</t>
+  </si>
   <si>
     <t>常量名</t>
   </si>
@@ -19,13 +39,172 @@
     <t>A1</t>
   </si>
   <si>
+    <t>A_B1</t>
+  </si>
+  <si>
+    <t>A_C1</t>
+  </si>
+  <si>
+    <t>A_D1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A_B2</t>
+  </si>
+  <si>
+    <t>A_C2</t>
+  </si>
+  <si>
+    <t>A_D2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A_B3</t>
+  </si>
+  <si>
+    <t>A_C3</t>
+  </si>
+  <si>
+    <t>A_D3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A_B4</t>
+  </si>
+  <si>
+    <t>A_C4</t>
+  </si>
+  <si>
+    <t>A_D4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A_B5</t>
+  </si>
+  <si>
+    <t>A_C5</t>
+  </si>
+  <si>
+    <t>A_D5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A_B6</t>
+  </si>
+  <si>
+    <t>A_C6</t>
+  </si>
+  <si>
+    <t>A_D6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A_B7</t>
+  </si>
+  <si>
+    <t>A_C7</t>
+  </si>
+  <si>
+    <t>A_D7</t>
+  </si>
+  <si>
+    <t>Const_B</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>D1</t>
+    <t>B_B1</t>
+  </si>
+  <si>
+    <t>B_C1</t>
+  </si>
+  <si>
+    <t>B_D1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B_B2</t>
+  </si>
+  <si>
+    <t>B_C2</t>
+  </si>
+  <si>
+    <t>B_D2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B_B3</t>
+  </si>
+  <si>
+    <t>B_C3</t>
+  </si>
+  <si>
+    <t>B_D3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B_B4</t>
+  </si>
+  <si>
+    <t>B_C4</t>
+  </si>
+  <si>
+    <t>B_D4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B_B5</t>
+  </si>
+  <si>
+    <t>B_C5</t>
+  </si>
+  <si>
+    <t>B_D5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B_B6</t>
+  </si>
+  <si>
+    <t>B_C6</t>
+  </si>
+  <si>
+    <t>B_D6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B_B7</t>
+  </si>
+  <si>
+    <t>B_C7</t>
+  </si>
+  <si>
+    <t>B_D7</t>
   </si>
 </sst>
 </file>
@@ -35,9 +214,19 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
@@ -47,17 +236,35 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -70,16 +277,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -89,9 +296,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -102,7 +324,7 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -122,6 +344,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -1214,98 +1439,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="30.5547" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'Const_A'!R1C1" tooltip="" display="Const_A"/>
+    <hyperlink ref="D12" location="'Const_B'!R1C1" tooltip="" display="Const_B"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8516" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.96094" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.54688" style="6" customWidth="1"/>
+    <col min="3" max="4" width="7.96094" style="6" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>4</v>
+      <c r="A2" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
-        <f>11*3</f>
+      <c r="A3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D8" t="s" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="7.96094" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.54688" style="9" customWidth="1"/>
+    <col min="3" max="4" width="7.96094" style="9" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
-        <f>SUM(B1:B5)</f>
-        <v>79</v>
-      </c>
-      <c r="C6" s="4">
-        <v>111</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="A6" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4">
-        <f>AVERAGE(B1:B6)</f>
-        <v>39.5</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4">
-        <v>222</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
